--- a/xl/КБиСП 1 курс 2 сем-Д.xlsx
+++ b/xl/КБиСП 1 курс 2 сем-Д.xlsx
@@ -1596,20 +1596,12 @@
     <t>кр 4 н Экономика</t>
   </si>
   <si>
-    <t>10 н Линейная алгебра  и аналитическая геометрия
-14,16 н Иностранный язык</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кошелкин А.В.
 </t>
   </si>
   <si>
     <t>139
 каф</t>
-  </si>
-  <si>
-    <t>10 н Линейная алгебра  и аналитическая геометрия
-14,16 н Физическая культура и спорт</t>
   </si>
   <si>
     <t>139
@@ -1723,6 +1715,14 @@
   </si>
   <si>
     <t>15 н Дискретная математика</t>
+  </si>
+  <si>
+    <t>16 н Линейная алгебра  и аналитическая геометрия
+14,16 н Иностранный язык</t>
+  </si>
+  <si>
+    <t>16 н Линейная алгебра  и аналитическая геометрия
+14,16 н Физическая культура и спорт</t>
   </si>
 </sst>
 </file>
@@ -6938,10 +6938,10 @@
   <dimension ref="A1:MU94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="JR28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="LE4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AB69" sqref="AB69"/>
+      <selection pane="bottomRight" activeCell="LU21" sqref="LU21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
@@ -11298,7 +11298,7 @@
       <c r="JN6" s="359"/>
       <c r="JO6" s="336"/>
       <c r="JP6" s="781" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="JQ6" s="776" t="s">
         <v>44</v>
@@ -12652,7 +12652,7 @@
       <c r="JN8" s="359"/>
       <c r="JO8" s="336"/>
       <c r="JP8" s="781" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="JQ8" s="776" t="s">
         <v>44</v>
@@ -14766,7 +14766,7 @@
       <c r="KC11" s="457"/>
       <c r="KD11" s="399"/>
       <c r="KE11" s="781" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="KF11" s="776" t="s">
         <v>44</v>
@@ -17709,7 +17709,7 @@
       </c>
       <c r="HB16" s="471"/>
       <c r="HC16" s="772" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="HD16" s="759" t="s">
         <v>44</v>
@@ -18390,7 +18390,7 @@
       </c>
       <c r="FN17" s="471"/>
       <c r="FO17" s="781" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="FP17" s="759" t="s">
         <v>44</v>
@@ -18403,7 +18403,7 @@
       </c>
       <c r="FS17" s="601"/>
       <c r="FT17" s="781" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="FU17" s="759" t="s">
         <v>44</v>
@@ -19271,7 +19271,7 @@
       </c>
       <c r="HB18" s="471"/>
       <c r="HC18" s="772" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="HD18" s="759" t="s">
         <v>44</v>
@@ -19954,7 +19954,7 @@
       </c>
       <c r="FN19" s="471"/>
       <c r="FO19" s="781" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="FP19" s="759" t="s">
         <v>44</v>
@@ -19967,7 +19967,7 @@
       </c>
       <c r="FS19" s="601"/>
       <c r="FT19" s="781" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="FU19" s="759" t="s">
         <v>44</v>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="GH20" s="471"/>
       <c r="GI20" s="772" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="GJ20" s="759" t="s">
         <v>44</v>
@@ -22217,7 +22217,7 @@
       </c>
       <c r="GH22" s="471"/>
       <c r="GI22" s="772" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="GJ22" s="759" t="s">
         <v>44</v>
@@ -25364,7 +25364,7 @@
         <v>1</v>
       </c>
       <c r="CH28" s="781" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="CI28" s="759" t="s">
         <v>43</v>
@@ -25377,7 +25377,7 @@
       </c>
       <c r="CL28" s="233"/>
       <c r="CM28" s="781" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="CN28" s="759" t="s">
         <v>43</v>
@@ -25390,7 +25390,7 @@
       </c>
       <c r="CQ28" s="233"/>
       <c r="CR28" s="781" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="CS28" s="759" t="s">
         <v>43</v>
@@ -25418,7 +25418,7 @@
         <v>1</v>
       </c>
       <c r="DB28" s="781" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="DC28" s="759" t="s">
         <v>43</v>
@@ -25578,7 +25578,7 @@
         <v>1</v>
       </c>
       <c r="GD28" s="407" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="GE28" s="455" t="s">
         <v>43</v>
@@ -25591,7 +25591,7 @@
       </c>
       <c r="GH28" s="233"/>
       <c r="GI28" s="772" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="GJ28" s="759" t="s">
         <v>43</v>
@@ -25604,7 +25604,7 @@
       </c>
       <c r="GM28" s="602"/>
       <c r="GN28" s="772" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="GO28" s="759" t="s">
         <v>43</v>
@@ -26774,7 +26774,7 @@
       </c>
       <c r="AI30" s="233"/>
       <c r="AJ30" s="781" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AK30" s="759" t="s">
         <v>43</v>
@@ -26800,7 +26800,7 @@
         <v>1</v>
       </c>
       <c r="AT30" s="781" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AU30" s="759" t="s">
         <v>43</v>
@@ -26844,7 +26844,7 @@
         <v>1</v>
       </c>
       <c r="BN30" s="781" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="BO30" s="759" t="s">
         <v>43</v>
@@ -26857,7 +26857,7 @@
       </c>
       <c r="BR30" s="233"/>
       <c r="BS30" s="781" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="BT30" s="759" t="s">
         <v>43</v>
@@ -26870,7 +26870,7 @@
       </c>
       <c r="BW30" s="233"/>
       <c r="BX30" s="781" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="BY30" s="759" t="s">
         <v>43</v>
@@ -32316,7 +32316,7 @@
       <c r="AH38" s="216"/>
       <c r="AI38" s="336"/>
       <c r="AJ38" s="781" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AK38" s="759" t="s">
         <v>43</v>
@@ -32342,7 +32342,7 @@
         <v>1</v>
       </c>
       <c r="AT38" s="781" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AU38" s="759" t="s">
         <v>43</v>
@@ -32380,7 +32380,7 @@
         <v>1</v>
       </c>
       <c r="BN38" s="781" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="BO38" s="759" t="s">
         <v>43</v>
@@ -32393,7 +32393,7 @@
       </c>
       <c r="BR38" s="336"/>
       <c r="BS38" s="781" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="BT38" s="759" t="s">
         <v>43</v>
@@ -32406,7 +32406,7 @@
       </c>
       <c r="BW38" s="336"/>
       <c r="BX38" s="781" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="BY38" s="759" t="s">
         <v>43</v>
@@ -32432,7 +32432,7 @@
         <v>1</v>
       </c>
       <c r="CH38" s="781" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="CI38" s="759" t="s">
         <v>43</v>
@@ -32445,7 +32445,7 @@
       </c>
       <c r="CL38" s="336"/>
       <c r="CM38" s="781" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="CN38" s="759" t="s">
         <v>43</v>
@@ -32458,7 +32458,7 @@
       </c>
       <c r="CQ38" s="336"/>
       <c r="CR38" s="781" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="CS38" s="759" t="s">
         <v>43</v>
@@ -32484,7 +32484,7 @@
         <v>1</v>
       </c>
       <c r="DB38" s="781" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="DC38" s="759" t="s">
         <v>43</v>
@@ -35366,7 +35366,7 @@
         <v>1</v>
       </c>
       <c r="KT42" s="772" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="KU42" s="759" t="s">
         <v>44</v>
@@ -39616,7 +39616,7 @@
         <v>1</v>
       </c>
       <c r="KT48" s="772" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="KU48" s="759" t="s">
         <v>44</v>
@@ -42179,7 +42179,7 @@
       <c r="ED53" s="457"/>
       <c r="EE53" s="494"/>
       <c r="EF53" s="781" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="EG53" s="759" t="s">
         <v>44</v>
@@ -42918,7 +42918,7 @@
         <v>1</v>
       </c>
       <c r="GD54" s="772" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="GE54" s="759" t="s">
         <v>43</v>
@@ -42931,7 +42931,7 @@
       </c>
       <c r="GH54" s="337"/>
       <c r="GI54" s="772" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="GJ54" s="759" t="s">
         <v>43</v>
@@ -42944,7 +42944,7 @@
       </c>
       <c r="GM54" s="337"/>
       <c r="GN54" s="772" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="GO54" s="759" t="s">
         <v>43</v>
@@ -43547,7 +43547,7 @@
         <v>2</v>
       </c>
       <c r="EP55" s="781" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="EQ55" s="759" t="s">
         <v>44</v>
@@ -44994,7 +44994,7 @@
       </c>
       <c r="ET57" s="336"/>
       <c r="EU57" s="781" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="EV57" s="759" t="s">
         <v>44</v>
@@ -45734,7 +45734,7 @@
       </c>
       <c r="EE58" s="495"/>
       <c r="EF58" s="549" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="EG58" s="541" t="s">
         <v>43</v>
@@ -45760,7 +45760,7 @@
         <v>1</v>
       </c>
       <c r="EP58" s="725" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="EQ58" s="776" t="s">
         <v>43</v>
@@ -45773,7 +45773,7 @@
       </c>
       <c r="ET58" s="478"/>
       <c r="EU58" s="725" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="EV58" s="776" t="s">
         <v>43</v>
@@ -46802,7 +46802,7 @@
       </c>
       <c r="KD59" s="470"/>
       <c r="KE59" s="781" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="KF59" s="759" t="s">
         <v>44</v>
@@ -48402,7 +48402,7 @@
       </c>
       <c r="EE62" s="470"/>
       <c r="EF62" s="725" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="EG62" s="776" t="s">
         <v>43</v>
@@ -48428,7 +48428,7 @@
         <v>1</v>
       </c>
       <c r="EP62" s="725" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="EQ62" s="776" t="s">
         <v>43</v>
@@ -48441,7 +48441,7 @@
       </c>
       <c r="ET62" s="470"/>
       <c r="EU62" s="725" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="EV62" s="776" t="s">
         <v>43</v>
@@ -49678,16 +49678,16 @@
       </c>
       <c r="GH64" s="629"/>
       <c r="GI64" s="781" t="s">
+        <v>520</v>
+      </c>
+      <c r="GJ64" s="759" t="s">
+        <v>44</v>
+      </c>
+      <c r="GK64" s="760" t="s">
+        <v>521</v>
+      </c>
+      <c r="GL64" s="959" t="s">
         <v>522</v>
-      </c>
-      <c r="GJ64" s="759" t="s">
-        <v>44</v>
-      </c>
-      <c r="GK64" s="760" t="s">
-        <v>523</v>
-      </c>
-      <c r="GL64" s="959" t="s">
-        <v>524</v>
       </c>
       <c r="GM64" s="629"/>
       <c r="GN64" s="647"/>
@@ -50266,16 +50266,16 @@
       <c r="ED65" s="745"/>
       <c r="EE65" s="487"/>
       <c r="EF65" s="788" t="s">
+        <v>499</v>
+      </c>
+      <c r="EG65" s="759" t="s">
+        <v>44</v>
+      </c>
+      <c r="EH65" s="760" t="s">
+        <v>500</v>
+      </c>
+      <c r="EI65" s="381" t="s">
         <v>501</v>
-      </c>
-      <c r="EG65" s="759" t="s">
-        <v>44</v>
-      </c>
-      <c r="EH65" s="760" t="s">
-        <v>502</v>
-      </c>
-      <c r="EI65" s="381" t="s">
-        <v>503</v>
       </c>
       <c r="EJ65" s="473"/>
       <c r="EK65" s="971"/>
@@ -50286,16 +50286,16 @@
         <v>2</v>
       </c>
       <c r="EP65" s="788" t="s">
+        <v>499</v>
+      </c>
+      <c r="EQ65" s="759" t="s">
+        <v>44</v>
+      </c>
+      <c r="ER65" s="760" t="s">
+        <v>500</v>
+      </c>
+      <c r="ES65" s="381" t="s">
         <v>501</v>
-      </c>
-      <c r="EQ65" s="759" t="s">
-        <v>44</v>
-      </c>
-      <c r="ER65" s="760" t="s">
-        <v>502</v>
-      </c>
-      <c r="ES65" s="381" t="s">
-        <v>503</v>
       </c>
       <c r="ET65" s="473"/>
       <c r="EU65" s="781" t="s">
@@ -50423,16 +50423,16 @@
       <c r="HA65" s="457"/>
       <c r="HB65" s="473"/>
       <c r="HC65" s="788" t="s">
+        <v>527</v>
+      </c>
+      <c r="HD65" s="759" t="s">
+        <v>44</v>
+      </c>
+      <c r="HE65" s="760" t="s">
         <v>494</v>
       </c>
-      <c r="HD65" s="759" t="s">
-        <v>44</v>
-      </c>
-      <c r="HE65" s="760" t="s">
+      <c r="HF65" s="745" t="s">
         <v>495</v>
-      </c>
-      <c r="HF65" s="745" t="s">
-        <v>496</v>
       </c>
       <c r="HG65" s="473"/>
       <c r="HH65" s="424"/>
@@ -51110,16 +51110,16 @@
       </c>
       <c r="GH66" s="629"/>
       <c r="GI66" s="713" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="GJ66" s="759" t="s">
         <v>44</v>
       </c>
       <c r="GK66" s="760" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="GL66" s="745" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="GM66" s="629"/>
       <c r="GN66" s="647"/>
@@ -51698,16 +51698,16 @@
       <c r="ED67" s="349"/>
       <c r="EE67" s="487"/>
       <c r="EF67" s="590" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="EG67" s="759" t="s">
         <v>44</v>
       </c>
       <c r="EH67" s="760" t="s">
+        <v>500</v>
+      </c>
+      <c r="EI67" s="736" t="s">
         <v>502</v>
-      </c>
-      <c r="EI67" s="736" t="s">
-        <v>504</v>
       </c>
       <c r="EJ67" s="473"/>
       <c r="EK67" s="971"/>
@@ -51718,16 +51718,16 @@
         <v>2</v>
       </c>
       <c r="EP67" s="590" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="EQ67" s="759" t="s">
         <v>44</v>
       </c>
       <c r="ER67" s="760" t="s">
+        <v>500</v>
+      </c>
+      <c r="ES67" s="736" t="s">
         <v>502</v>
-      </c>
-      <c r="ES67" s="736" t="s">
-        <v>504</v>
       </c>
       <c r="ET67" s="473"/>
       <c r="EU67" s="781" t="s">
@@ -51855,16 +51855,16 @@
       <c r="HA67" s="457"/>
       <c r="HB67" s="473"/>
       <c r="HC67" s="788" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="HD67" s="759" t="s">
         <v>44</v>
       </c>
       <c r="HE67" s="760" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="HF67" s="745" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="HG67" s="473"/>
       <c r="HH67" s="321"/>
@@ -52632,7 +52632,7 @@
         <v>44</v>
       </c>
       <c r="IS68" s="760" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="IT68" s="727">
         <v>342</v>
@@ -52675,7 +52675,7 @@
       <c r="JN68" s="457"/>
       <c r="JO68" s="399"/>
       <c r="JP68" s="781" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="JQ68" s="776" t="s">
         <v>44</v>
@@ -52878,7 +52878,7 @@
         <v>2</v>
       </c>
       <c r="Z69" s="772" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AA69" s="759" t="s">
         <v>44</v>
@@ -53139,16 +53139,16 @@
       </c>
       <c r="ET69" s="479"/>
       <c r="EU69" s="788" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="EV69" s="759" t="s">
         <v>44</v>
       </c>
       <c r="EW69" s="760" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="EX69" s="745" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="EY69" s="479"/>
       <c r="EZ69" s="781" t="s">
@@ -53173,7 +53173,7 @@
       <c r="FM69" s="140"/>
       <c r="FN69" s="479"/>
       <c r="FO69" s="781" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="FP69" s="365" t="s">
         <v>44</v>
@@ -53186,16 +53186,16 @@
       </c>
       <c r="FS69" s="479"/>
       <c r="FT69" s="958" t="s">
+        <v>511</v>
+      </c>
+      <c r="FU69" s="759" t="s">
+        <v>44</v>
+      </c>
+      <c r="FV69" s="760" t="s">
+        <v>512</v>
+      </c>
+      <c r="FW69" s="745" t="s">
         <v>513</v>
-      </c>
-      <c r="FU69" s="759" t="s">
-        <v>44</v>
-      </c>
-      <c r="FV69" s="760" t="s">
-        <v>514</v>
-      </c>
-      <c r="FW69" s="745" t="s">
-        <v>515</v>
       </c>
       <c r="FX69" s="479"/>
       <c r="FY69" s="971"/>
@@ -53241,16 +53241,16 @@
       </c>
       <c r="HB69" s="479"/>
       <c r="HC69" s="775" t="s">
+        <v>517</v>
+      </c>
+      <c r="HD69" s="759" t="s">
+        <v>44</v>
+      </c>
+      <c r="HE69" s="760" t="s">
+        <v>518</v>
+      </c>
+      <c r="HF69" s="727" t="s">
         <v>519</v>
-      </c>
-      <c r="HD69" s="759" t="s">
-        <v>44</v>
-      </c>
-      <c r="HE69" s="760" t="s">
-        <v>520</v>
-      </c>
-      <c r="HF69" s="727" t="s">
-        <v>521</v>
       </c>
       <c r="HG69" s="479"/>
       <c r="HH69" s="362"/>
@@ -54063,7 +54063,7 @@
       <c r="JN70" s="349"/>
       <c r="JO70" s="399"/>
       <c r="JP70" s="781" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="JQ70" s="776" t="s">
         <v>44</v>
@@ -54274,7 +54274,7 @@
         <v>2</v>
       </c>
       <c r="Z71" s="772" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AA71" s="759" t="s">
         <v>44</v>
@@ -54497,16 +54497,16 @@
       <c r="ES71" s="349"/>
       <c r="ET71" s="474"/>
       <c r="EU71" s="788" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="EV71" s="759" t="s">
         <v>44</v>
       </c>
       <c r="EW71" s="760" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="EX71" s="745" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="EY71" s="474"/>
       <c r="EZ71" s="781" t="s">
@@ -54531,7 +54531,7 @@
       <c r="FM71" s="140"/>
       <c r="FN71" s="474"/>
       <c r="FO71" s="781" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="FP71" s="776" t="s">
         <v>44</v>
@@ -54544,16 +54544,16 @@
       </c>
       <c r="FS71" s="474"/>
       <c r="FT71" s="958" t="s">
+        <v>511</v>
+      </c>
+      <c r="FU71" s="759" t="s">
+        <v>44</v>
+      </c>
+      <c r="FV71" s="760" t="s">
+        <v>512</v>
+      </c>
+      <c r="FW71" s="745" t="s">
         <v>513</v>
-      </c>
-      <c r="FU71" s="759" t="s">
-        <v>44</v>
-      </c>
-      <c r="FV71" s="760" t="s">
-        <v>514</v>
-      </c>
-      <c r="FW71" s="745" t="s">
-        <v>515</v>
       </c>
       <c r="FX71" s="474"/>
       <c r="FY71" s="971"/>
@@ -54599,7 +54599,7 @@
       </c>
       <c r="HB71" s="474"/>
       <c r="HC71" s="772" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="HD71" s="759" t="s">
         <v>44</v>
